--- a/public/sample_imports/SampleSupplier.xlsx
+++ b/public/sample_imports/SampleSupplier.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\vs1_cloud_dev\public\sample_imports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="SampleSupplier" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -40,9 +45,6 @@
     <t>Street</t>
   </si>
   <si>
-    <t>Street2</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -70,13 +72,16 @@
     <t>123 Main Street</t>
   </si>
   <si>
-    <t>Main Street</t>
-  </si>
-  <si>
     <t>New York</t>
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>City/Suburb</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
   </si>
 </sst>
 </file>
@@ -615,6 +620,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -662,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -697,7 +705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -909,7 +917,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +929,7 @@
     <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -953,27 +961,27 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>9995551213</v>
@@ -982,25 +990,25 @@
         <v>9995551213</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
       <c r="K2">
         <v>1234</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
